--- a/gen/career_sheet.xlsx
+++ b/gen/career_sheet.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>氏名</t>
+  </si>
+  <si>
+    <t>佐々木正太郎</t>
+  </si>
+  <si>
+    <t>ハンドルネーム</t>
   </si>
   <si>
     <t>sky0621</t>
@@ -338,6 +344,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>